--- a/aug_pc_result/2026_Feb_18_17_25_28_d_separation_pval_ensemble_pc_gt_graph_AdaSyn_50_3606569/ori_pc_eval_res.xlsx
+++ b/aug_pc_result/2026_Feb_18_17_25_28_d_separation_pval_ensemble_pc_gt_graph_AdaSyn_50_3606569/ori_pc_eval_res.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CausalLearning\code\aug_pc_result\2026_Feb_18_17_25_28_d_separation_pval_ensemble_pc_gt_graph_AdaSyn_50_3606569\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA4C2F3-4099-4D7E-B1BA-39FF3E5D3715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16604580-5C49-4513-ABDB-9BB0AE3872CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -682,7 +682,7 @@
   <dimension ref="A1:AD5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:AD5"/>
+      <selection activeCell="AD5" sqref="AD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
